--- a/文档和流程图/打表.xlsx
+++ b/文档和流程图/打表.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1644,11 +1644,11 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
